--- a/medicine/Enfance/John_Boyne/John_Boyne.xlsx
+++ b/medicine/Enfance/John_Boyne/John_Boyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Boyne, né le 30 avril 1971 à Dublin, est un écrivain irlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Dublin en 1971, John Boyne étudie la littérature anglaise au Trinity College de Dublin et l'écriture créative à l'université d'East Anglia, située à Norwich, où il reçoit le prix Curtis-Brown. 
 Il amorce une carrière d'écrivain et publie des romans pour adultes et des romans pour adolescents, notamment en 2006, Le Garçon en pyjama rayé (The Boy in the Striped Pyjamas), roman qui devient no 1 du New York Times Bestseller List et se vend à plus de 6 millions d'exemplaires dans le monde, avant d'être adapté au cinéma, sous le titre Le Garçon au pyjama rayé (The Boy in the Striped Pyjamas) en 2008 par le réalisateur Mark Herman pour le compte de la société de production Miramax. 
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-(en) The Thief of Time, 2000
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Thief of Time, 2000
 (en) The Congress of Rough Riders, 2001
 (en) Next of Kin, 2006
 (en) Mutiny On The Bounty, 2008
@@ -561,82 +580,189 @@
 Les Fureurs invisibles du cœur, JC Lattès, 2018 ((en) The Heart's Invisible Furies, 2017), trad. Sophie Aslanides  (ISBN 978-2-7096-5977-2)
 L'audacieux Monsieur Swift, JC Lattès, 2020 ((en) A Ladder to the sky, 2018), trad. Sophie Aslanides  (ISBN 978-2-7096-6540-7)
 Le syndrome du canal carpien, JC Lattès, 2022 ((en) The Echo Chamber, 2021), trad. Sophie Aslanides  (ISBN 978-2-7096-6950-4)
-La vie en fuite, JC Lattès, 2023 ((en) All the broken places, 2022), trad. Sophie Aslanides  (ISBN 978-2-7096-7063-0)
-Romans pour la jeunesse
-Le Garçon en pyjama rayé, Gallimard Jeunesse, coll. « Folio Junior », 2009 ((en) The Boy in the Striped Pyjamas, 2006)Réédition aux éditions Gallimard, coll. « Folioplus classiques » no 279, 2015  (ISBN 978-2-07-046318-3)
+La vie en fuite, JC Lattès, 2023 ((en) All the broken places, 2022), trad. Sophie Aslanides  (ISBN 978-2-7096-7063-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Boyne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boyne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Garçon en pyjama rayé, Gallimard Jeunesse, coll. « Folio Junior », 2009 ((en) The Boy in the Striped Pyjamas, 2006)Réédition aux éditions Gallimard, coll. « Folioplus classiques » no 279, 2015  (ISBN 978-2-07-046318-3)
 Noé Nectar et son voyage étrange, Gallimard Jeunesse, 2012 ((en) Noah Barleywater Runs Away, 2010)Illustré par Oliver Jeffers
 Barnabé ou la Vie en l'air, Gallimard Jeunesse, 2014 ((en) The Terrible Thing That Happened To Barnaby Brocket, 2012)Illustré par Oliver Jeffers
 Mon père est parti à la guerre, Gallimard Jeunesse, 2014 ((en) Stay Where You Are And Then Leave, 2014)
 Le Garçon au sommet de la montagne, Gallimard Jeunesse, 2016 ((en) The Boy at the Top of the Mountain, Doubleday Children's, 2015)
 (en) My Brother’s Name is Jessica, 2019
-Le garçon en pyjama rayé et Le garçon au sommet de la montagne figurent sur la liste des œuvres recommandées par le Ministère de l'Éducation nationale français pour les collégiens[1].
-Recueils de nouvelles
-(en) Beneath The Earth, 2015
-Nouvelles
-(en) Crippen, 2004
+Le garçon en pyjama rayé et Le garçon au sommet de la montagne figurent sur la liste des œuvres recommandées par le Ministère de l'Éducation nationale français pour les collégiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John_Boyne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boyne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Beneath The Earth, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John_Boyne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Boyne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Crippen, 2004
 (en) The Red Sky, 2007
 (en) The Second Child, 2008
 (en) The Dare, 2009</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>John_Boyne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/John_Boyne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2008 : Le Garçon au pyjama rayé (The Boy in the Striped Pyjamas), film britannico-américain réalisé par Mark Herman, adaptation du roman éponyme.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>John_Boyne</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/John_Boyne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son dernier roman jeunesse paru en 2019, My Brother's Name is Jessica, porte sur une adolescente transgenre racontée par son frère. Dans un article paru dans le Irish times[2], il a créé une polémique en rejetant le terme « cis » qui désigne les personnes non « trans », ce qui a déclenché de violentes critiques sur les réseaux sociaux, notamment sur Twitter, de la part d'activistes qui y ont vu une attaque contre la communauté transgenre[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son dernier roman jeunesse paru en 2019, My Brother's Name is Jessica, porte sur une adolescente transgenre racontée par son frère. Dans un article paru dans le Irish times, il a créé une polémique en rejetant le terme « cis » qui désigne les personnes non « trans », ce qui a déclenché de violentes critiques sur les réseaux sociaux, notamment sur Twitter, de la part d'activistes qui y ont vu une attaque contre la communauté transgenre.
 </t>
         </is>
       </c>
